--- a/data/pca/factorExposure/factorExposure_2016-04-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-04-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01043614454926884</v>
+        <v>0.01380413452882202</v>
       </c>
       <c r="C2">
-        <v>0.05403059444301579</v>
+        <v>0.03756419038594189</v>
       </c>
       <c r="D2">
-        <v>0.04509525017002486</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05808359602417906</v>
+      </c>
+      <c r="E2">
+        <v>-0.09072312607518759</v>
+      </c>
+      <c r="F2">
+        <v>-0.08671064964887186</v>
+      </c>
+      <c r="G2">
+        <v>-0.03001451296838958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04105621782246094</v>
+        <v>0.02555905738613774</v>
       </c>
       <c r="C3">
-        <v>0.1200646244341775</v>
+        <v>0.066205846852689</v>
       </c>
       <c r="D3">
-        <v>0.0840668497084857</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.0714589840073552</v>
+      </c>
+      <c r="E3">
+        <v>-0.07328490505682983</v>
+      </c>
+      <c r="F3">
+        <v>0.02311755388278864</v>
+      </c>
+      <c r="G3">
+        <v>-0.04732309376561609</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06362002678894799</v>
+        <v>0.06092299902326782</v>
       </c>
       <c r="C4">
-        <v>0.05973748057765751</v>
+        <v>0.06184127807387919</v>
       </c>
       <c r="D4">
-        <v>0.02563248688427159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05115711104340531</v>
+      </c>
+      <c r="E4">
+        <v>-0.09104340223336892</v>
+      </c>
+      <c r="F4">
+        <v>-0.04122987439203715</v>
+      </c>
+      <c r="G4">
+        <v>-0.09251908327466875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04091568962604068</v>
+        <v>0.03685786668114752</v>
       </c>
       <c r="C6">
-        <v>0.03465610367119231</v>
+        <v>0.02561105010053908</v>
       </c>
       <c r="D6">
-        <v>0.0299535079216597</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06068654993326962</v>
+      </c>
+      <c r="E6">
+        <v>-0.08832724872762095</v>
+      </c>
+      <c r="F6">
+        <v>-0.02656654148189415</v>
+      </c>
+      <c r="G6">
+        <v>-0.06673356634024701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02760442948947817</v>
+        <v>0.02146255701396707</v>
       </c>
       <c r="C7">
-        <v>0.04117110556635226</v>
+        <v>0.03581786181954617</v>
       </c>
       <c r="D7">
-        <v>-0.005381282226519291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.0375710755345707</v>
+      </c>
+      <c r="E7">
+        <v>-0.06641113748398285</v>
+      </c>
+      <c r="F7">
+        <v>-0.0701784557661</v>
+      </c>
+      <c r="G7">
+        <v>-0.09799178476100116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.007494485279529976</v>
+        <v>0.005266733138453647</v>
       </c>
       <c r="C8">
-        <v>0.04026436761268005</v>
+        <v>0.03402383536963832</v>
       </c>
       <c r="D8">
-        <v>0.02629967196318368</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03224416754831264</v>
+      </c>
+      <c r="E8">
+        <v>-0.06200604600865722</v>
+      </c>
+      <c r="F8">
+        <v>-0.01967511425022937</v>
+      </c>
+      <c r="G8">
+        <v>-0.03681006453257207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03644414684705451</v>
+        <v>0.03934388055923444</v>
       </c>
       <c r="C9">
-        <v>0.04850221823217954</v>
+        <v>0.05024836951854844</v>
       </c>
       <c r="D9">
-        <v>0.01014051961158606</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.03667456246336112</v>
+      </c>
+      <c r="E9">
+        <v>-0.07457135318613986</v>
+      </c>
+      <c r="F9">
+        <v>-0.05361084099988959</v>
+      </c>
+      <c r="G9">
+        <v>-0.08732164481275338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07091726388241408</v>
+        <v>0.09710293783671309</v>
       </c>
       <c r="C10">
-        <v>-0.1895131149836743</v>
+        <v>-0.2000471966796742</v>
       </c>
       <c r="D10">
-        <v>-0.007067894892748183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01172037635574306</v>
+      </c>
+      <c r="E10">
+        <v>-0.03301387555360662</v>
+      </c>
+      <c r="F10">
+        <v>-0.01680956676228024</v>
+      </c>
+      <c r="G10">
+        <v>-0.03648697733742041</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04256990727552654</v>
+        <v>0.03776146229214089</v>
       </c>
       <c r="C11">
-        <v>0.05133839513960326</v>
+        <v>0.04732820766614135</v>
       </c>
       <c r="D11">
-        <v>0.01402394936490728</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03146078304770785</v>
+      </c>
+      <c r="E11">
+        <v>-0.03017668819024655</v>
+      </c>
+      <c r="F11">
+        <v>-0.0405651962014949</v>
+      </c>
+      <c r="G11">
+        <v>-0.06848790701973184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04522681012193731</v>
+        <v>0.0398948458556885</v>
       </c>
       <c r="C12">
-        <v>0.0465670958061034</v>
+        <v>0.04501218256978975</v>
       </c>
       <c r="D12">
-        <v>0.003199231214090018</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02646877440491612</v>
+      </c>
+      <c r="E12">
+        <v>-0.03654863113034998</v>
+      </c>
+      <c r="F12">
+        <v>-0.04282828647698318</v>
+      </c>
+      <c r="G12">
+        <v>-0.06620559105812776</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01491224576748195</v>
+        <v>0.01234264203060735</v>
       </c>
       <c r="C13">
-        <v>0.05275004896787095</v>
+        <v>0.04100478231055191</v>
       </c>
       <c r="D13">
-        <v>0.009282739485638443</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04337157477964421</v>
+      </c>
+      <c r="E13">
+        <v>-0.103094745130639</v>
+      </c>
+      <c r="F13">
+        <v>-0.0601595043967991</v>
+      </c>
+      <c r="G13">
+        <v>-0.09656705188630653</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.01047574641578357</v>
+        <v>0.006723900342380708</v>
       </c>
       <c r="C14">
-        <v>0.04026484594644122</v>
+        <v>0.03156065686700677</v>
       </c>
       <c r="D14">
-        <v>-0.007389426324437152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02473203124387644</v>
+      </c>
+      <c r="E14">
+        <v>-0.05011089233552307</v>
+      </c>
+      <c r="F14">
+        <v>-0.07636240965739602</v>
+      </c>
+      <c r="G14">
+        <v>-0.0841719472919904</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-2.881105346931834e-05</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005421993526859037</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.007439651990606825</v>
+      </c>
+      <c r="E15">
+        <v>-0.00484799390877158</v>
+      </c>
+      <c r="F15">
+        <v>-0.006597099584039837</v>
+      </c>
+      <c r="G15">
+        <v>-0.007500175836024186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04034339127071501</v>
+        <v>0.03581159099039027</v>
       </c>
       <c r="C16">
-        <v>0.04797178206203432</v>
+        <v>0.04389647694237509</v>
       </c>
       <c r="D16">
-        <v>0.005387011838535741</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02492155099638415</v>
+      </c>
+      <c r="E16">
+        <v>-0.0431885461180833</v>
+      </c>
+      <c r="F16">
+        <v>-0.05221117318592422</v>
+      </c>
+      <c r="G16">
+        <v>-0.0569353972405633</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02668105796141768</v>
+        <v>0.01898951443074517</v>
       </c>
       <c r="C19">
-        <v>0.06099609132730965</v>
+        <v>0.04394766544058465</v>
       </c>
       <c r="D19">
-        <v>0.09095992790732903</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09174470276353587</v>
+      </c>
+      <c r="E19">
+        <v>-0.1136305790126014</v>
+      </c>
+      <c r="F19">
+        <v>-0.06543445317435009</v>
+      </c>
+      <c r="G19">
+        <v>-0.04366197279615185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01890748047758653</v>
+        <v>0.01507287853692907</v>
       </c>
       <c r="C20">
-        <v>0.04746007987763039</v>
+        <v>0.03822837306924418</v>
       </c>
       <c r="D20">
-        <v>0.01046272777862647</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03272370028576933</v>
+      </c>
+      <c r="E20">
+        <v>-0.08051874699621367</v>
+      </c>
+      <c r="F20">
+        <v>-0.05335368173435143</v>
+      </c>
+      <c r="G20">
+        <v>-0.0667671112148734</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01225300764349143</v>
+        <v>0.01028308954160268</v>
       </c>
       <c r="C21">
-        <v>0.05569319625836174</v>
+        <v>0.04297431487750002</v>
       </c>
       <c r="D21">
-        <v>0.03310745244961213</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.05510104120591201</v>
+      </c>
+      <c r="E21">
+        <v>-0.1272348900527398</v>
+      </c>
+      <c r="F21">
+        <v>-0.090314177791326</v>
+      </c>
+      <c r="G21">
+        <v>-0.09954387177324479</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.001796117416969833</v>
+        <v>0.003579499476652188</v>
       </c>
       <c r="C22">
-        <v>0.001167500650648582</v>
+        <v>0.02751003975830507</v>
       </c>
       <c r="D22">
-        <v>0.005630972497395392</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.04438395182587372</v>
+      </c>
+      <c r="E22">
+        <v>-0.04728946012032594</v>
+      </c>
+      <c r="F22">
+        <v>0.01185523851289642</v>
+      </c>
+      <c r="G22">
+        <v>-0.05500138519450071</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.001801757014414339</v>
+        <v>0.003671465210975533</v>
       </c>
       <c r="C23">
-        <v>0.001186597582021701</v>
+        <v>0.02764801782872287</v>
       </c>
       <c r="D23">
-        <v>0.005619677233162637</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.04393536659928018</v>
+      </c>
+      <c r="E23">
+        <v>-0.04755605575627119</v>
+      </c>
+      <c r="F23">
+        <v>0.01211992185125294</v>
+      </c>
+      <c r="G23">
+        <v>-0.05498216860365113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03721725191577731</v>
+        <v>0.03620388495340258</v>
       </c>
       <c r="C24">
-        <v>0.05014381985048242</v>
+        <v>0.05190355833935992</v>
       </c>
       <c r="D24">
-        <v>0.006545481457114056</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02386289829541626</v>
+      </c>
+      <c r="E24">
+        <v>-0.044643372804021</v>
+      </c>
+      <c r="F24">
+        <v>-0.05413172200078523</v>
+      </c>
+      <c r="G24">
+        <v>-0.07036723788809568</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04900313294407269</v>
+        <v>0.04412745064852127</v>
       </c>
       <c r="C25">
-        <v>0.06119350163682229</v>
+        <v>0.05571566785444036</v>
       </c>
       <c r="D25">
-        <v>-0.003744562604694615</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02220306363181086</v>
+      </c>
+      <c r="E25">
+        <v>-0.03759315779845861</v>
+      </c>
+      <c r="F25">
+        <v>-0.04396232195376705</v>
+      </c>
+      <c r="G25">
+        <v>-0.07864324605710581</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01702568209478668</v>
+        <v>0.01597697685468754</v>
       </c>
       <c r="C26">
-        <v>0.01801331555209731</v>
+        <v>0.01649845024714082</v>
       </c>
       <c r="D26">
-        <v>0.001357351436160583</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02422395650834238</v>
+      </c>
+      <c r="E26">
+        <v>-0.05342269144860891</v>
+      </c>
+      <c r="F26">
+        <v>-0.06002986387921826</v>
+      </c>
+      <c r="G26">
+        <v>-0.05135441701217821</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08418657919002004</v>
+        <v>0.1319885567578166</v>
       </c>
       <c r="C28">
-        <v>-0.2478510229817272</v>
+        <v>-0.2559185095593064</v>
       </c>
       <c r="D28">
-        <v>-0.008904678215965432</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.0291276555247969</v>
+      </c>
+      <c r="E28">
+        <v>-0.05683852384117298</v>
+      </c>
+      <c r="F28">
+        <v>-0.03142886051090014</v>
+      </c>
+      <c r="G28">
+        <v>-0.05236427052930569</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.008259907593605396</v>
+        <v>0.006677889194613</v>
       </c>
       <c r="C29">
-        <v>0.03369083359251104</v>
+        <v>0.02846022698502977</v>
       </c>
       <c r="D29">
-        <v>-0.01479076373733107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01629039153928782</v>
+      </c>
+      <c r="E29">
+        <v>-0.04990897221026445</v>
+      </c>
+      <c r="F29">
+        <v>-0.0667163711633883</v>
+      </c>
+      <c r="G29">
+        <v>-0.08765321936502198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04612974543486806</v>
+        <v>0.04307623499383018</v>
       </c>
       <c r="C30">
-        <v>0.05328027917081789</v>
+        <v>0.05585075602630668</v>
       </c>
       <c r="D30">
-        <v>0.07981054054221597</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1013434640154804</v>
+      </c>
+      <c r="E30">
+        <v>-0.08064167368182368</v>
+      </c>
+      <c r="F30">
+        <v>-0.06985305894668987</v>
+      </c>
+      <c r="G30">
+        <v>-0.06826637016689799</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06099511878007428</v>
+        <v>0.05886846012437048</v>
       </c>
       <c r="C31">
-        <v>0.04383264461833375</v>
+        <v>0.06040321760646677</v>
       </c>
       <c r="D31">
-        <v>-0.04415892505540482</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01877775080155512</v>
+      </c>
+      <c r="E31">
+        <v>-0.07099551685026211</v>
+      </c>
+      <c r="F31">
+        <v>-0.02707310619272314</v>
+      </c>
+      <c r="G31">
+        <v>-0.08450232819170626</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.001533955079766173</v>
+        <v>0.00615651172876995</v>
       </c>
       <c r="C32">
-        <v>0.04328208831035556</v>
+        <v>0.0340231299410632</v>
       </c>
       <c r="D32">
-        <v>0.05739962864876774</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0533377428285205</v>
+      </c>
+      <c r="E32">
+        <v>-0.05690119037013112</v>
+      </c>
+      <c r="F32">
+        <v>-0.06919025171037457</v>
+      </c>
+      <c r="G32">
+        <v>-0.06901681040299461</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03425636809325978</v>
+        <v>0.02815241907341652</v>
       </c>
       <c r="C33">
-        <v>0.05740106854527063</v>
+        <v>0.05149961453683956</v>
       </c>
       <c r="D33">
-        <v>0.03987766095410324</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.06993521499166859</v>
+      </c>
+      <c r="E33">
+        <v>-0.09256821202116146</v>
+      </c>
+      <c r="F33">
+        <v>-0.0680723761633968</v>
+      </c>
+      <c r="G33">
+        <v>-0.09886303525659228</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04625785983170699</v>
+        <v>0.0417124252117208</v>
       </c>
       <c r="C34">
-        <v>0.06420658305776757</v>
+        <v>0.06223518263387668</v>
       </c>
       <c r="D34">
-        <v>0.01958060613473072</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03810314052231473</v>
+      </c>
+      <c r="E34">
+        <v>-0.01932430570387084</v>
+      </c>
+      <c r="F34">
+        <v>-0.05457388603923961</v>
+      </c>
+      <c r="G34">
+        <v>-0.07131460685853971</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01713357652929812</v>
+        <v>0.01473710367532064</v>
       </c>
       <c r="C36">
-        <v>0.01758440732209998</v>
+        <v>0.01338725143926138</v>
       </c>
       <c r="D36">
-        <v>-0.004248765877981571</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02291009675931718</v>
+      </c>
+      <c r="E36">
+        <v>-0.06154910211441757</v>
+      </c>
+      <c r="F36">
+        <v>-0.0499628737125668</v>
+      </c>
+      <c r="G36">
+        <v>-0.06804568873773494</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03008562874380986</v>
+        <v>0.02374248812582754</v>
       </c>
       <c r="C38">
-        <v>0.03189400571241494</v>
+        <v>0.02391656277785403</v>
       </c>
       <c r="D38">
-        <v>-0.01507578114984401</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0210357169781602</v>
+      </c>
+      <c r="E38">
+        <v>-0.05199756064005642</v>
+      </c>
+      <c r="F38">
+        <v>-0.0416929069344785</v>
+      </c>
+      <c r="G38">
+        <v>-0.04686322081241827</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.0477470820639917</v>
+        <v>0.04201819967280143</v>
       </c>
       <c r="C39">
-        <v>0.06194670003640645</v>
+        <v>0.06197642072080007</v>
       </c>
       <c r="D39">
-        <v>0.02031444812884946</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05057612774111962</v>
+      </c>
+      <c r="E39">
+        <v>-0.0515111272177665</v>
+      </c>
+      <c r="F39">
+        <v>-0.07423675944917765</v>
+      </c>
+      <c r="G39">
+        <v>-0.06464724501314083</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01185479561178077</v>
+        <v>0.01351433803864938</v>
       </c>
       <c r="C40">
-        <v>0.05436897369883324</v>
+        <v>0.03887681909653419</v>
       </c>
       <c r="D40">
-        <v>0.01832770350394296</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.02929329731293222</v>
+      </c>
+      <c r="E40">
+        <v>-0.09100509339037569</v>
+      </c>
+      <c r="F40">
+        <v>-0.03444543536016202</v>
+      </c>
+      <c r="G40">
+        <v>-0.1029454427375377</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02287504152951497</v>
+        <v>0.01955199869919334</v>
       </c>
       <c r="C41">
-        <v>0.01294397563691832</v>
+        <v>0.009242873469040935</v>
       </c>
       <c r="D41">
-        <v>0.0007368362444884093</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01491025607989358</v>
+      </c>
+      <c r="E41">
+        <v>-0.06175139512967914</v>
+      </c>
+      <c r="F41">
+        <v>-0.04657480791385563</v>
+      </c>
+      <c r="G41">
+        <v>-0.05481987574362184</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04308549146385029</v>
+        <v>0.03082020291448764</v>
       </c>
       <c r="C43">
-        <v>0.03363820581723335</v>
+        <v>0.02437956834281424</v>
       </c>
       <c r="D43">
-        <v>0.02207958373353941</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04271472809414527</v>
+      </c>
+      <c r="E43">
+        <v>-0.07959875280751705</v>
+      </c>
+      <c r="F43">
+        <v>-0.03856692094296683</v>
+      </c>
+      <c r="G43">
+        <v>-0.08260605002635789</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01532695557149026</v>
+        <v>0.01612924695884724</v>
       </c>
       <c r="C44">
-        <v>0.06780681578086499</v>
+        <v>0.04711629523818889</v>
       </c>
       <c r="D44">
-        <v>0.008804781292656202</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03188653924164917</v>
+      </c>
+      <c r="E44">
+        <v>-0.08792696490860155</v>
+      </c>
+      <c r="F44">
+        <v>-0.06491485249438138</v>
+      </c>
+      <c r="G44">
+        <v>-0.04947432195236031</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01067881208840241</v>
+        <v>0.01126916355873667</v>
       </c>
       <c r="C46">
-        <v>0.02831219493995416</v>
+        <v>0.02855161860586031</v>
       </c>
       <c r="D46">
-        <v>-0.01521276400922642</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01170932260180278</v>
+      </c>
+      <c r="E46">
+        <v>-0.05987884134588763</v>
+      </c>
+      <c r="F46">
+        <v>-0.07966430886147237</v>
+      </c>
+      <c r="G46">
+        <v>-0.08752314913126853</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08993571650925507</v>
+        <v>0.09273282220628855</v>
       </c>
       <c r="C47">
-        <v>0.06727800058125759</v>
+        <v>0.07807538504774678</v>
       </c>
       <c r="D47">
-        <v>-0.04382727412099827</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02525627436027309</v>
+      </c>
+      <c r="E47">
+        <v>-0.06852465241768932</v>
+      </c>
+      <c r="F47">
+        <v>-0.02554954803876901</v>
+      </c>
+      <c r="G47">
+        <v>-0.07786034930795897</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01876515004262715</v>
+        <v>0.01752212536802194</v>
       </c>
       <c r="C48">
-        <v>0.01490851598606264</v>
+        <v>0.01568350185308602</v>
       </c>
       <c r="D48">
-        <v>-0.01704752838851963</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01026665319160672</v>
+      </c>
+      <c r="E48">
+        <v>-0.07421162047927948</v>
+      </c>
+      <c r="F48">
+        <v>-0.06352317652117954</v>
+      </c>
+      <c r="G48">
+        <v>-0.07557197616064706</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08460631015696886</v>
+        <v>0.07226226623058647</v>
       </c>
       <c r="C50">
-        <v>0.08045254388917042</v>
+        <v>0.07381525724648814</v>
       </c>
       <c r="D50">
-        <v>-0.04451273145682411</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0104566765544705</v>
+      </c>
+      <c r="E50">
+        <v>-0.07927698891692553</v>
+      </c>
+      <c r="F50">
+        <v>0.003026046882050029</v>
+      </c>
+      <c r="G50">
+        <v>-0.09327107018967321</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01763132305560958</v>
+        <v>0.0109786842069385</v>
       </c>
       <c r="C51">
-        <v>0.0503631286817583</v>
+        <v>0.03221670700390859</v>
       </c>
       <c r="D51">
-        <v>0.04121479900734167</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.05540998150411795</v>
+      </c>
+      <c r="E51">
+        <v>-0.05220800430581877</v>
+      </c>
+      <c r="F51">
+        <v>-0.07027520412865071</v>
+      </c>
+      <c r="G51">
+        <v>-0.06326270941384655</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08460441566441651</v>
+        <v>0.0970868324927551</v>
       </c>
       <c r="C53">
-        <v>0.07651040307768445</v>
+        <v>0.08463297538865089</v>
       </c>
       <c r="D53">
-        <v>-0.06403429829046403</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.06165845711878404</v>
+      </c>
+      <c r="E53">
+        <v>-0.06598831205781136</v>
+      </c>
+      <c r="F53">
+        <v>-0.02429930189708471</v>
+      </c>
+      <c r="G53">
+        <v>-0.06908099219320478</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.0369246560152813</v>
+        <v>0.0299879386882484</v>
       </c>
       <c r="C54">
-        <v>0.03687794292590085</v>
+        <v>0.03192021525478365</v>
       </c>
       <c r="D54">
-        <v>-0.004650403883509529</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02366777536119158</v>
+      </c>
+      <c r="E54">
+        <v>-0.05739803918097783</v>
+      </c>
+      <c r="F54">
+        <v>-0.06871957886169827</v>
+      </c>
+      <c r="G54">
+        <v>-0.08568284819833734</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07952466876507047</v>
+        <v>0.08950758663243183</v>
       </c>
       <c r="C55">
-        <v>0.05343524448776514</v>
+        <v>0.06662572859849887</v>
       </c>
       <c r="D55">
-        <v>-0.06755533445872883</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.0615924394422825</v>
+      </c>
+      <c r="E55">
+        <v>-0.04307418282273979</v>
+      </c>
+      <c r="F55">
+        <v>-0.007052399940192355</v>
+      </c>
+      <c r="G55">
+        <v>-0.05200054626380061</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1529550705205461</v>
+        <v>0.1550500276877449</v>
       </c>
       <c r="C56">
-        <v>0.08030409773741395</v>
+        <v>0.09874078389399249</v>
       </c>
       <c r="D56">
-        <v>-0.05966213467639975</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05635373805563713</v>
+      </c>
+      <c r="E56">
+        <v>-0.04005149358002688</v>
+      </c>
+      <c r="F56">
+        <v>0.01496227039108932</v>
+      </c>
+      <c r="G56">
+        <v>-0.02344874082992367</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04937376673244773</v>
+        <v>0.03077480870807114</v>
       </c>
       <c r="C58">
-        <v>0.02071977764977068</v>
+        <v>0.02107039303836954</v>
       </c>
       <c r="D58">
-        <v>0.5851090078285938</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.370615026135545</v>
+      </c>
+      <c r="E58">
+        <v>-0.6356437994375167</v>
+      </c>
+      <c r="F58">
+        <v>0.3974162851237693</v>
+      </c>
+      <c r="G58">
+        <v>0.4706889339134236</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1240324564882353</v>
+        <v>0.1394360802604687</v>
       </c>
       <c r="C59">
-        <v>-0.2013635309501379</v>
+        <v>-0.1917401625734068</v>
       </c>
       <c r="D59">
-        <v>0.02780630839803363</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02983930138470035</v>
+      </c>
+      <c r="E59">
+        <v>-0.0276940000714715</v>
+      </c>
+      <c r="F59">
+        <v>-0.03692654081544301</v>
+      </c>
+      <c r="G59">
+        <v>0.008720619596959835</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3066972971863606</v>
+        <v>0.2773062506024229</v>
       </c>
       <c r="C60">
-        <v>0.1087890904532248</v>
+        <v>0.1061836230634501</v>
       </c>
       <c r="D60">
-        <v>0.1803525281103541</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2590313887269075</v>
+      </c>
+      <c r="E60">
+        <v>0.2372753801174944</v>
+      </c>
+      <c r="F60">
+        <v>0.08916786153488709</v>
+      </c>
+      <c r="G60">
+        <v>-0.04194571336162296</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04682276368476487</v>
+        <v>0.04337502549549159</v>
       </c>
       <c r="C61">
-        <v>0.06059016990071939</v>
+        <v>0.05744599338774634</v>
       </c>
       <c r="D61">
-        <v>0.01366362289034715</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04070585154462528</v>
+      </c>
+      <c r="E61">
+        <v>-0.05374370856362095</v>
+      </c>
+      <c r="F61">
+        <v>-0.05528116443550918</v>
+      </c>
+      <c r="G61">
+        <v>-0.07879604123340797</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01883947402784044</v>
+        <v>0.01707211351946977</v>
       </c>
       <c r="C63">
-        <v>0.03366072697006489</v>
+        <v>0.03036038964536619</v>
       </c>
       <c r="D63">
-        <v>-0.02237814704331713</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01544263987130548</v>
+      </c>
+      <c r="E63">
+        <v>-0.06447705586144097</v>
+      </c>
+      <c r="F63">
+        <v>-0.03495953164150601</v>
+      </c>
+      <c r="G63">
+        <v>-0.07668251750421706</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05084134286759689</v>
+        <v>0.05659100192181223</v>
       </c>
       <c r="C64">
-        <v>0.0480379974350927</v>
+        <v>0.0575462895419938</v>
       </c>
       <c r="D64">
-        <v>0.01425729060832775</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.007481774953125143</v>
+      </c>
+      <c r="E64">
+        <v>-0.04374027510480392</v>
+      </c>
+      <c r="F64">
+        <v>-0.050675201842571</v>
+      </c>
+      <c r="G64">
+        <v>-0.05369669537424661</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08158616623549385</v>
+        <v>0.06626744856814343</v>
       </c>
       <c r="C65">
-        <v>0.02376817425753163</v>
+        <v>0.02443542217856629</v>
       </c>
       <c r="D65">
-        <v>0.06180209459718734</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08723067122565753</v>
+      </c>
+      <c r="E65">
+        <v>-0.05550450595588011</v>
+      </c>
+      <c r="F65">
+        <v>-0.005163820690911852</v>
+      </c>
+      <c r="G65">
+        <v>-0.02162832622582706</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06297015611627012</v>
+        <v>0.0539989650812488</v>
       </c>
       <c r="C66">
-        <v>0.08567376995232207</v>
+        <v>0.07985682441358473</v>
       </c>
       <c r="D66">
-        <v>0.04048354517766459</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07486570766421886</v>
+      </c>
+      <c r="E66">
+        <v>-0.06213660643369637</v>
+      </c>
+      <c r="F66">
+        <v>-0.06614837018503598</v>
+      </c>
+      <c r="G66">
+        <v>-0.07808472535544596</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05166226643302387</v>
+        <v>0.04524569751938784</v>
       </c>
       <c r="C67">
-        <v>0.0314723068318184</v>
+        <v>0.02826718876653589</v>
       </c>
       <c r="D67">
-        <v>-0.02252904724244123</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.004808248184633645</v>
+      </c>
+      <c r="E67">
+        <v>-0.02849599606955949</v>
+      </c>
+      <c r="F67">
+        <v>-0.02847880421044131</v>
+      </c>
+      <c r="G67">
+        <v>-0.03680008196327664</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1195546296505826</v>
+        <v>0.144371430468736</v>
       </c>
       <c r="C68">
-        <v>-0.2817021804823646</v>
+        <v>-0.2462106685074886</v>
       </c>
       <c r="D68">
-        <v>-0.008081286220889446</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.0164137693618532</v>
+      </c>
+      <c r="E68">
+        <v>-0.04209538361394032</v>
+      </c>
+      <c r="F68">
+        <v>-0.01073182783766239</v>
+      </c>
+      <c r="G68">
+        <v>-0.03064584854197311</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09270378140194935</v>
+        <v>0.08810914400653203</v>
       </c>
       <c r="C69">
-        <v>0.07103515136271238</v>
+        <v>0.08920641493357652</v>
       </c>
       <c r="D69">
-        <v>-0.05108379829543684</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01700984161960954</v>
+      </c>
+      <c r="E69">
+        <v>-0.06077541870618871</v>
+      </c>
+      <c r="F69">
+        <v>-0.05640967518680365</v>
+      </c>
+      <c r="G69">
+        <v>-0.07806769195169057</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1115589076055903</v>
+        <v>0.1393632537022716</v>
       </c>
       <c r="C71">
-        <v>-0.2584765246620453</v>
+        <v>-0.2451882557439231</v>
       </c>
       <c r="D71">
-        <v>0.01292164997950352</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.0006973123617708974</v>
+      </c>
+      <c r="E71">
+        <v>-0.05551685508867216</v>
+      </c>
+      <c r="F71">
+        <v>-0.0128788802738258</v>
+      </c>
+      <c r="G71">
+        <v>-0.0631739980171688</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09855184621424447</v>
+        <v>0.1044967519883718</v>
       </c>
       <c r="C72">
-        <v>0.04358650911325893</v>
+        <v>0.05065144564664179</v>
       </c>
       <c r="D72">
-        <v>0.007222357649644269</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.03283375359439726</v>
+      </c>
+      <c r="E72">
+        <v>-0.02103349841606984</v>
+      </c>
+      <c r="F72">
+        <v>-0.023514544520972</v>
+      </c>
+      <c r="G72">
+        <v>-0.08739379361318249</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3961656535149014</v>
+        <v>0.3363803727203816</v>
       </c>
       <c r="C73">
-        <v>0.04725162745195899</v>
+        <v>0.07046249817278095</v>
       </c>
       <c r="D73">
-        <v>0.4388296006916415</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.5145030189530501</v>
+      </c>
+      <c r="E73">
+        <v>0.4399848507232187</v>
+      </c>
+      <c r="F73">
+        <v>0.2517585273375274</v>
+      </c>
+      <c r="G73">
+        <v>-0.01675682622915255</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1074525581305694</v>
+        <v>0.112012845791048</v>
       </c>
       <c r="C74">
-        <v>0.09305667341176657</v>
+        <v>0.09183741451423137</v>
       </c>
       <c r="D74">
-        <v>-0.04949889921451972</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04993946846534977</v>
+      </c>
+      <c r="E74">
+        <v>-0.06124442333176674</v>
+      </c>
+      <c r="F74">
+        <v>0.01539020151972443</v>
+      </c>
+      <c r="G74">
+        <v>-0.05401827313289515</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2603561052120643</v>
+        <v>0.2632344243395527</v>
       </c>
       <c r="C75">
-        <v>0.08903665290571697</v>
+        <v>0.1213685316411165</v>
       </c>
       <c r="D75">
-        <v>-0.1365343684828654</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1507696363480744</v>
+      </c>
+      <c r="E75">
+        <v>-0.02909039037073082</v>
+      </c>
+      <c r="F75">
+        <v>0.06774659806343133</v>
+      </c>
+      <c r="G75">
+        <v>0.05699024888952264</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1175153755270094</v>
+        <v>0.1302514489022386</v>
       </c>
       <c r="C76">
-        <v>0.08049351859534773</v>
+        <v>0.0916387145718188</v>
       </c>
       <c r="D76">
-        <v>-0.07826085716972161</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.08317461725864363</v>
+      </c>
+      <c r="E76">
+        <v>-0.07218907699697154</v>
+      </c>
+      <c r="F76">
+        <v>-0.01095535804695924</v>
+      </c>
+      <c r="G76">
+        <v>-0.03154973851539814</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07994612628190474</v>
+        <v>0.06561988105128466</v>
       </c>
       <c r="C77">
-        <v>0.04670538139716698</v>
+        <v>0.05942851762206577</v>
       </c>
       <c r="D77">
-        <v>0.05123938720922353</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.05149136232686036</v>
+      </c>
+      <c r="E77">
+        <v>-0.09516946916108832</v>
+      </c>
+      <c r="F77">
+        <v>-0.1797544320592482</v>
+      </c>
+      <c r="G77">
+        <v>0.09036098610877966</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04979841656332663</v>
+        <v>0.04736769754057242</v>
       </c>
       <c r="C78">
-        <v>0.04046982574819692</v>
+        <v>0.05209121429482348</v>
       </c>
       <c r="D78">
-        <v>0.03182650464401852</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06134809752324798</v>
+      </c>
+      <c r="E78">
+        <v>-0.06148407700695149</v>
+      </c>
+      <c r="F78">
+        <v>-0.05653835763699526</v>
+      </c>
+      <c r="G78">
+        <v>-0.06340650919106487</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.0001312605798505437</v>
+        <v>0.03230727813356091</v>
       </c>
       <c r="C79">
-        <v>-0.000155721828312666</v>
+        <v>0.04534484076433679</v>
       </c>
       <c r="D79">
-        <v>0.0005188030905212619</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.07994058523120633</v>
+      </c>
+      <c r="E79">
+        <v>-0.0647907979268498</v>
+      </c>
+      <c r="F79">
+        <v>0.01969519337288177</v>
+      </c>
+      <c r="G79">
+        <v>-0.03138787761242742</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04042396217207078</v>
+        <v>0.03130994359792805</v>
       </c>
       <c r="C80">
-        <v>0.04887506741248185</v>
+        <v>0.04941280253736539</v>
       </c>
       <c r="D80">
-        <v>0.03272580348556761</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.0396133589577547</v>
+      </c>
+      <c r="E80">
+        <v>-0.01682360486766481</v>
+      </c>
+      <c r="F80">
+        <v>-0.0558569365687093</v>
+      </c>
+      <c r="G80">
+        <v>-0.0005066962583069029</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1430767589067098</v>
+        <v>0.1426283852477467</v>
       </c>
       <c r="C81">
-        <v>0.07188546143854214</v>
+        <v>0.09088390419501731</v>
       </c>
       <c r="D81">
-        <v>-0.1130590303795126</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1283765655702397</v>
+      </c>
+      <c r="E81">
+        <v>-0.0709344997646717</v>
+      </c>
+      <c r="F81">
+        <v>0.02698716132954503</v>
+      </c>
+      <c r="G81">
+        <v>0.01521199102173306</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.187986062955371</v>
+        <v>0.2233646159038598</v>
       </c>
       <c r="C82">
-        <v>0.08103728504932589</v>
+        <v>0.1473935506258227</v>
       </c>
       <c r="D82">
-        <v>-0.1997492776571473</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2525136249775189</v>
+      </c>
+      <c r="E82">
+        <v>0.03183604404231986</v>
+      </c>
+      <c r="F82">
+        <v>-0.04782075224246306</v>
+      </c>
+      <c r="G82">
+        <v>-0.06706840598596059</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04011716563722879</v>
+        <v>0.02713178639434393</v>
       </c>
       <c r="C83">
-        <v>0.03066722035871675</v>
+        <v>0.04374038252567617</v>
       </c>
       <c r="D83">
-        <v>0.03872503777444804</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.02986860619738292</v>
+      </c>
+      <c r="E83">
+        <v>-0.02737829653435184</v>
+      </c>
+      <c r="F83">
+        <v>-0.03988521924193646</v>
+      </c>
+      <c r="G83">
+        <v>-0.008097036673142988</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.000248076139972854</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0001214618423291308</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.001663500472652227</v>
+      </c>
+      <c r="E84">
+        <v>-0.002741773839351625</v>
+      </c>
+      <c r="F84">
+        <v>0.0003704194218395867</v>
+      </c>
+      <c r="G84">
+        <v>-0.00214864822615527</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2220272383057581</v>
+        <v>0.2048051694599154</v>
       </c>
       <c r="C85">
-        <v>0.09012853718499576</v>
+        <v>0.1084075364423017</v>
       </c>
       <c r="D85">
-        <v>-0.1654439022984029</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1292819085163564</v>
+      </c>
+      <c r="E85">
+        <v>0.007065965128132103</v>
+      </c>
+      <c r="F85">
+        <v>0.104188340442407</v>
+      </c>
+      <c r="G85">
+        <v>0.01893465350212305</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.009418989979323753</v>
+        <v>0.01169500439794516</v>
       </c>
       <c r="C86">
-        <v>0.02776285361432239</v>
+        <v>0.01960838166203487</v>
       </c>
       <c r="D86">
-        <v>0.04335980332407603</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.06026179684021491</v>
+      </c>
+      <c r="E86">
+        <v>-0.07972620406967611</v>
+      </c>
+      <c r="F86">
+        <v>-0.08434061663657232</v>
+      </c>
+      <c r="G86">
+        <v>-0.07564932938219482</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02462899478347748</v>
+        <v>0.02536194097753329</v>
       </c>
       <c r="C87">
-        <v>0.003495366909989071</v>
+        <v>0.01193792660128769</v>
       </c>
       <c r="D87">
-        <v>0.08327428616215259</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08088634795824312</v>
+      </c>
+      <c r="E87">
+        <v>-0.1312116096541985</v>
+      </c>
+      <c r="F87">
+        <v>-0.07961337791195075</v>
+      </c>
+      <c r="G87">
+        <v>-0.01307090041470083</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1120391637116255</v>
+        <v>0.09509306622881783</v>
       </c>
       <c r="C88">
-        <v>0.07080359586999804</v>
+        <v>0.06066194334643166</v>
       </c>
       <c r="D88">
-        <v>-0.02282255463706384</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.008943057458344738</v>
+      </c>
+      <c r="E88">
+        <v>-0.05071967325944126</v>
+      </c>
+      <c r="F88">
+        <v>-0.05493424268453251</v>
+      </c>
+      <c r="G88">
+        <v>-0.04036922491019307</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.175239305092322</v>
+        <v>0.2119876282256438</v>
       </c>
       <c r="C89">
-        <v>-0.3871341520035045</v>
+        <v>-0.3882545667820552</v>
       </c>
       <c r="D89">
-        <v>-0.02022663210584742</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01461309015456783</v>
+      </c>
+      <c r="E89">
+        <v>-0.06767585984087914</v>
+      </c>
+      <c r="F89">
+        <v>-0.09088117953192851</v>
+      </c>
+      <c r="G89">
+        <v>-0.001127423166332762</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1679578629554105</v>
+        <v>0.1924330012833055</v>
       </c>
       <c r="C90">
-        <v>-0.3382996761375996</v>
+        <v>-0.3138788740240164</v>
       </c>
       <c r="D90">
-        <v>-0.03726678104730848</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02353875810992559</v>
+      </c>
+      <c r="E90">
+        <v>-0.05648750419706803</v>
+      </c>
+      <c r="F90">
+        <v>-0.03037649128519122</v>
+      </c>
+      <c r="G90">
+        <v>-0.01453055800283354</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1935848710861995</v>
+        <v>0.1903276157822207</v>
       </c>
       <c r="C91">
-        <v>0.1215702020838806</v>
+        <v>0.1379668074999369</v>
       </c>
       <c r="D91">
-        <v>-0.1307694609719835</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1305927443368196</v>
+      </c>
+      <c r="E91">
+        <v>-0.04495491441860171</v>
+      </c>
+      <c r="F91">
+        <v>0.01743574442018171</v>
+      </c>
+      <c r="G91">
+        <v>0.00857442677947215</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1556173093211021</v>
+        <v>0.1758175395571921</v>
       </c>
       <c r="C92">
-        <v>-0.2938780391297585</v>
+        <v>-0.297550178105135</v>
       </c>
       <c r="D92">
-        <v>-0.01552941614442416</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.01583966058325244</v>
+      </c>
+      <c r="E92">
+        <v>-0.0620415107755521</v>
+      </c>
+      <c r="F92">
+        <v>-0.05418206979284262</v>
+      </c>
+      <c r="G92">
+        <v>-0.03069668281336708</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1871969403163039</v>
+        <v>0.2131857999353614</v>
       </c>
       <c r="C93">
-        <v>-0.3431934644713353</v>
+        <v>-0.3244408471271105</v>
       </c>
       <c r="D93">
-        <v>-0.03518318560402863</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01844091431062351</v>
+      </c>
+      <c r="E93">
+        <v>-0.0389888544111301</v>
+      </c>
+      <c r="F93">
+        <v>-0.004873663767233098</v>
+      </c>
+      <c r="G93">
+        <v>-0.04139476219904689</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.343768442604575</v>
+        <v>0.345258261821235</v>
       </c>
       <c r="C94">
-        <v>0.123298294791605</v>
+        <v>0.1709226046479724</v>
       </c>
       <c r="D94">
-        <v>-0.3763977363765421</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4069406613922458</v>
+      </c>
+      <c r="E94">
+        <v>0.01368236479366758</v>
+      </c>
+      <c r="F94">
+        <v>0.1070650358763391</v>
+      </c>
+      <c r="G94">
+        <v>0.3984283355790376</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1251282356476914</v>
+        <v>0.09222832839801308</v>
       </c>
       <c r="C95">
-        <v>0.0517551388292986</v>
+        <v>0.05567761838368303</v>
       </c>
       <c r="D95">
-        <v>0.2344464750349625</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.2103899841146648</v>
+      </c>
+      <c r="E95">
+        <v>0.1332986764198517</v>
+      </c>
+      <c r="F95">
+        <v>-0.7198272231027405</v>
+      </c>
+      <c r="G95">
+        <v>0.5491805933515429</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1907153637558189</v>
+        <v>0.1859464304075367</v>
       </c>
       <c r="C98">
-        <v>0.02415047534958091</v>
+        <v>0.04744652784131924</v>
       </c>
       <c r="D98">
-        <v>0.1556517463056822</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.2025261653590344</v>
+      </c>
+      <c r="E98">
+        <v>0.129139855964292</v>
+      </c>
+      <c r="F98">
+        <v>0.08797626026451892</v>
+      </c>
+      <c r="G98">
+        <v>-0.08089687315798275</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.008038210535440467</v>
+        <v>0.006666397546414566</v>
       </c>
       <c r="C101">
-        <v>0.03371904251529195</v>
+        <v>0.02800875815905644</v>
       </c>
       <c r="D101">
-        <v>-0.01454738488889883</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01618550583237554</v>
+      </c>
+      <c r="E101">
+        <v>-0.05058067251991107</v>
+      </c>
+      <c r="F101">
+        <v>-0.06742630165863431</v>
+      </c>
+      <c r="G101">
+        <v>-0.08752788679494715</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1246475950402879</v>
+        <v>0.1278286839470767</v>
       </c>
       <c r="C102">
-        <v>0.06747680912595078</v>
+        <v>0.09806001589655577</v>
       </c>
       <c r="D102">
-        <v>-0.04932063583324815</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05938729330025394</v>
+      </c>
+      <c r="E102">
+        <v>0.01578849220628114</v>
+      </c>
+      <c r="F102">
+        <v>-0.02367559202639023</v>
+      </c>
+      <c r="G102">
+        <v>0.0100068373886561</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
